--- a/Patriots_Regular_Season_Data (1).xlsx
+++ b/Patriots_Regular_Season_Data (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parth/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ffddeaeea2f5829/Desktop/Bootcamp/Project_1/Tom_Brady_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58FAEE73-D768-254A-8B8D-7EBF92E5998E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{58FAEE73-D768-254A-8B8D-7EBF92E5998E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{739C9450-F22B-47E2-8FD4-00486B065114}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regular Season Team Stats" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -203,7 +203,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Patriots_Regular_Season_Data.xlsx]Regular Season Team Stats!PivotTable2</c:name>
+    <c:name>[Patriots_Regular_Season_Data (1).xlsx]Regular Season Team Stats!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -374,6 +374,213 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -418,6 +625,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'Regular Season Team Stats'!$A$6:$A$46</c:f>
@@ -661,6 +926,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'Regular Season Team Stats'!$A$6:$A$46</c:f>
@@ -904,6 +1227,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'Regular Season Team Stats'!$A$6:$A$46</c:f>
@@ -1110,8 +1491,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1875,16 +2257,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>848784</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52916</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>2120901</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>52916</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12026,7 +12408,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2358257D-3137-0241-825D-262D0BB795F7}" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2358257D-3137-0241-825D-262D0BB795F7}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A5:D46" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -12290,7 +12672,7 @@
     <dataField name="Sum of Deffensive Pts ranking" fld="6" baseField="0" baseItem="0"/>
     <dataField name="Sum of Turnover ratio ranking" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="3">
+  <chartFormats count="9">
     <chartFormat chart="0" format="11" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -12310,6 +12692,60 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="0" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="19" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -12531,11 +12967,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27709D65-C91B-2942-8D93-F3088BAC13A2}">
   <dimension ref="A2:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
@@ -13185,7 +13621,7 @@
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
